--- a/parsed_resume.xlsx
+++ b/parsed_resume.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,44 +436,123 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>contact_info</t>
+          <t>Contact Info</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>skills</t>
+          <t>Skills</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>experience</t>
+          <t>Experience</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Summary</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Qualifications</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Sector Name</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Experience Level</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>{'email': '', 'phone': ''}</t>
+          <t>{'email': &lt;re.Match object; span=(34, 60), match='kinanaabueideh15@gmail.com'&gt;, 'phone': None}</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['javascript', 'c++', 'html', 'css', 'java']</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>['Android', 'Home Page', 'java\nComputer', 'An-Najah University', 'Software', 'SRS', 'Health Care\n']</t>
-        </is>
-      </c>
+          <t>html, java, css, c++, javascript</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve">Advanced programming
+2022
+-Use java and excel to make database and store, 
+process from it by java code
+-GUI for videos rental using Database
+-Java program to handle conversion among 
+numbering system
+Cryptography and computer security
+2021
+-Applied Vigenere Cipher algorithm in c++
+Artificial intelligence
+2023
+-Developed a program to solve the 8-puzzle game 
+using the Best-First algorithm in java
+Computer science student, An-Najah University
+2020 – present | Nablus, Palestine
+Android
+2024
+-Project to handle conversion among numbering 
+system
+Software
+2022
+Wrote a SRS for a project that helps students 
+organizing time,giving alters for assignment , 
+exams, and organizing student affairs according to 
+the time priority
+Research and Documentation
+2023
+-Scientific research about Health Care
+</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>IT, Education</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Not specified</t>
         </is>
       </c>
     </row>
